--- a/output/VxLAN-Book1.xlsx
+++ b/output/VxLAN-Book1.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wcorv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive-Backup\Documents\GitHub\gns3-project2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEAC994-C5E3-4E41-A56F-C757D2C8DA34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB0236D-E216-4308-92AB-7F0FBB6BBA71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="690" windowWidth="24075" windowHeight="14925" activeTab="1" xr2:uid="{A4290EC5-C50D-4E9C-999A-CB8D00F5A965}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A4290EC5-C50D-4E9C-999A-CB8D00F5A965}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
     <sheet name="Sample Config" sheetId="1" r:id="rId2"/>
-    <sheet name="Summary" sheetId="2" r:id="rId3"/>
-    <sheet name="TRM-Config" sheetId="4" r:id="rId4"/>
+    <sheet name="1S x 2L" sheetId="5" r:id="rId3"/>
+    <sheet name="2-SpineSw x 2-LeafSw" sheetId="6" r:id="rId4"/>
+    <sheet name="Summary" sheetId="2" r:id="rId5"/>
+    <sheet name="TRM-Config" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="493">
   <si>
     <t>L2 VNI</t>
   </si>
@@ -505,12 +507,1102 @@
   <si>
     <t>(2nd Hour - fo 2 hr Video)</t>
   </si>
+  <si>
+    <t>Spine "1" Configuration:</t>
+  </si>
+  <si>
+    <t>hostname SPINE1</t>
+  </si>
+  <si>
+    <t>ip pim anycast-rp 10.254.254.254 10.250.250.101</t>
+  </si>
+  <si>
+    <t>ip pim rp-address 10.254.254.254 group-list 239.239.239.0/24</t>
+  </si>
+  <si>
+    <t>interface Ethernet3/1</t>
+  </si>
+  <si>
+    <t>  description Link to Leaf "V2"</t>
+  </si>
+  <si>
+    <t>  mtu 9216</t>
+  </si>
+  <si>
+    <t>  ip address 10.1.1.6/30</t>
+  </si>
+  <si>
+    <t>  ip ospf network point-to-point</t>
+  </si>
+  <si>
+    <t>  ip router ospf UNDERLAY area 0.0.0.0</t>
+  </si>
+  <si>
+    <t>  ip pim sparse-mode</t>
+  </si>
+  <si>
+    <t>  no shutdown</t>
+  </si>
+  <si>
+    <t>interface Ethernet3/2</t>
+  </si>
+  <si>
+    <t>  description Link to Leaf "V1"</t>
+  </si>
+  <si>
+    <t>  ip address 10.1.1.2/30</t>
+  </si>
+  <si>
+    <t>  ip address 10.250.250.101/32</t>
+  </si>
+  <si>
+    <t>interface loopback254</t>
+  </si>
+  <si>
+    <t>  ip address 10.254.254.254/32</t>
+  </si>
+  <si>
+    <t>router ospf UNDERLAY</t>
+  </si>
+  <si>
+    <t>  router-id 10.250.250.101</t>
+  </si>
+  <si>
+    <t>  log-adjacency-changes detail</t>
+  </si>
+  <si>
+    <t>router bgp 65500</t>
+  </si>
+  <si>
+    <t>  address-family ipv4 unicast</t>
+  </si>
+  <si>
+    <t>  neighbor 10.250.250.0/24 remote-as 65500</t>
+  </si>
+  <si>
+    <t>    update-source loopback0</t>
+  </si>
+  <si>
+    <t>    address-family l2vpn evpn</t>
+  </si>
+  <si>
+    <t>      send-community both</t>
+  </si>
+  <si>
+    <t>      route-reflector-client</t>
+  </si>
+  <si>
+    <r>
+      <t>  ip ospf network point-to-point</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF58585B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF58585B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t># will change OSPF interface back to Loopback; required for VPC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    address-family ipv4 unicast</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF58585B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> # optional for "show ip bgp summary" support</t>
+    </r>
+  </si>
+  <si>
+    <t>Leaf "V1" Configuration:</t>
+  </si>
+  <si>
+    <t>hostname LeafV1</t>
+  </si>
+  <si>
+    <t>feature vpc</t>
+  </si>
+  <si>
+    <t>fabric forwarding anycast-gateway-mac 2020.DEAD.BEEF</t>
+  </si>
+  <si>
+    <t>vlan 1,99-101,2500,3000</t>
+  </si>
+  <si>
+    <t>vlan 99</t>
+  </si>
+  <si>
+    <t>  name L2onlyHostSegment</t>
+  </si>
+  <si>
+    <t>  vn-segment 30099</t>
+  </si>
+  <si>
+    <t>  name L2L3HostSegment</t>
+  </si>
+  <si>
+    <t>  vn-segment 30000</t>
+  </si>
+  <si>
+    <t>vlan 101</t>
+  </si>
+  <si>
+    <t>  vn-segment 30001</t>
+  </si>
+  <si>
+    <t>vlan 2500</t>
+  </si>
+  <si>
+    <t>  name FabricBD</t>
+  </si>
+  <si>
+    <t>  vn-segment 50000</t>
+  </si>
+  <si>
+    <t>vlan 3000</t>
+  </si>
+  <si>
+    <t>  name VPCL3Peering</t>
+  </si>
+  <si>
+    <t>route-map FABRIC-RMAP-REDIST-SUBNET permit 10</t>
+  </si>
+  <si>
+    <t>  match tag 21921</t>
+  </si>
+  <si>
+    <t>vrf context TENANT1</t>
+  </si>
+  <si>
+    <t>  vni 50000</t>
+  </si>
+  <si>
+    <t>  rd auto</t>
+  </si>
+  <si>
+    <t>    route-target both auto</t>
+  </si>
+  <si>
+    <t>    route-target both auto evpn</t>
+  </si>
+  <si>
+    <t>  address-family ipv6 unicast</t>
+  </si>
+  <si>
+    <t>vpc domain 1</t>
+  </si>
+  <si>
+    <t>  peer-switch</t>
+  </si>
+  <si>
+    <t>  peer-keepalive destination 10.2.8.1 source 10.2.8.2 vrf management</t>
+  </si>
+  <si>
+    <t>  peer-gateway</t>
+  </si>
+  <si>
+    <t>  ip arp synchronize</t>
+  </si>
+  <si>
+    <t>  vrf member TENANT1</t>
+  </si>
+  <si>
+    <t>  ip address 192.168.100.1/24 tag 21921</t>
+  </si>
+  <si>
+    <t>  fabric forwarding mode anycast-gateway</t>
+  </si>
+  <si>
+    <t>interface Vlan101</t>
+  </si>
+  <si>
+    <t>  ip address 192.168.101.1/24 tag 21921</t>
+  </si>
+  <si>
+    <t>interface Vlan2500</t>
+  </si>
+  <si>
+    <t>  description FabricBD</t>
+  </si>
+  <si>
+    <t>  ip forward</t>
+  </si>
+  <si>
+    <t>interface Vlan3000</t>
+  </si>
+  <si>
+    <t>  description VPC Layer-3 Peering for VXLAN</t>
+  </si>
+  <si>
+    <t>  ip address 10.3.1.1/30 # Requires to be individual IP per VPC member</t>
+  </si>
+  <si>
+    <t>nve infra-vlans 3000</t>
+  </si>
+  <si>
+    <t># required for Nexus 9300-EX/FX or Nexus 9200</t>
+  </si>
+  <si>
+    <t>interface port-channel1</t>
+  </si>
+  <si>
+    <t>  description VPC Peer-Link</t>
+  </si>
+  <si>
+    <t>  switchport mode trunk</t>
+  </si>
+  <si>
+    <t>  spanning-tree port type network</t>
+  </si>
+  <si>
+    <t>  lacp suspend-individual</t>
+  </si>
+  <si>
+    <t>  vpc peer-link</t>
+  </si>
+  <si>
+    <t>hardware access-list tcam region vacl 0</t>
+  </si>
+  <si>
+    <t># example region to free up space for arp-ether region</t>
+  </si>
+  <si>
+    <t>hardware access-list tcam region arp-ether 256 double-wide</t>
+  </si>
+  <si>
+    <t># required for ARP suppression, requires reboot</t>
+  </si>
+  <si>
+    <t># double-wide is required starting 7.0(3)I3(1)</t>
+  </si>
+  <si>
+    <t># not required for Nexus 9300-EX/FX or Nexus 9200</t>
+  </si>
+  <si>
+    <t>  source-interface loopback1</t>
+  </si>
+  <si>
+    <t>  host-reachability protocol bgp</t>
+  </si>
+  <si>
+    <t>  member vni 30000</t>
+  </si>
+  <si>
+    <t>    suppress-arp</t>
+  </si>
+  <si>
+    <t>    mcast-group 239.239.239.100</t>
+  </si>
+  <si>
+    <t>  member vni 30001</t>
+  </si>
+  <si>
+    <t>    mcast-group 239.239.239.101</t>
+  </si>
+  <si>
+    <t>  member vni 30099</t>
+  </si>
+  <si>
+    <t>    mcast-group 239.239.239.99</t>
+  </si>
+  <si>
+    <t>  member vni 50000 associate-vrf</t>
+  </si>
+  <si>
+    <t>interface Ethernet1/1</t>
+  </si>
+  <si>
+    <t>  spanning-tree port type edge trunk</t>
+  </si>
+  <si>
+    <t>  spanning-tree bpduguard enable</t>
+  </si>
+  <si>
+    <t>interface Ethernet1/47</t>
+  </si>
+  <si>
+    <t>  description Link for VPC Peer-Link</t>
+  </si>
+  <si>
+    <t>  channel-group 1 mode active</t>
+  </si>
+  <si>
+    <t>interface Ethernet1/48</t>
+  </si>
+  <si>
+    <t>interface Ethernet2/1</t>
+  </si>
+  <si>
+    <t>  description Link to Spine "1"</t>
+  </si>
+  <si>
+    <t>  no switchport</t>
+  </si>
+  <si>
+    <t>  ip address 10.1.1.1/30</t>
+  </si>
+  <si>
+    <t>interface loopback0 # Loopback for Router ID, routing adjacency and peering</t>
+  </si>
+  <si>
+    <t>  ip address 10.250.250.102/32</t>
+  </si>
+  <si>
+    <t>interface loopback1 # Loopback for VTEP only</t>
+  </si>
+  <si>
+    <t>  ip address 10.254.254.102/32</t>
+  </si>
+  <si>
+    <t>  ip address 10.254.254.1/32 secondary</t>
+  </si>
+  <si>
+    <t>  ip ospf network point-to-point # will change OSPF interface back to Loopback; required for VPC</t>
+  </si>
+  <si>
+    <t>  router-id 10.250.250.102</t>
+  </si>
+  <si>
+    <t>  neighbor 10.250.250.101 remote-as 65500</t>
+  </si>
+  <si>
+    <t>    address-family ipv4 unicast # optional for "show ip bgp summary" support</t>
+  </si>
+  <si>
+    <t>  vrf TENANT1</t>
+  </si>
+  <si>
+    <t>    address-family ipv4 unicast</t>
+  </si>
+  <si>
+    <t>      advertise l2vpn evpn</t>
+  </si>
+  <si>
+    <t>      redistribute direct route-map FABRIC-RMAP-REDIST-SUBNET</t>
+  </si>
+  <si>
+    <t>  vni 30000 l2</t>
+  </si>
+  <si>
+    <t>    rd auto</t>
+  </si>
+  <si>
+    <t>    route-target import auto</t>
+  </si>
+  <si>
+    <t>    route-target export auto</t>
+  </si>
+  <si>
+    <t>  vni 30001 l2</t>
+  </si>
+  <si>
+    <t>  vni 30099 l2</t>
+  </si>
+  <si>
+    <t>Leaf "V2" Configuration:</t>
+  </si>
+  <si>
+    <t>hostname LeafV2</t>
+  </si>
+  <si>
+    <t>  peer-keepalive destination 10.2.8.2 source 10.2.8.1 vrf management</t>
+  </si>
+  <si>
+    <t>  ip address 10.3.1.2/30 # Requires to be individual IP per VPC member</t>
+  </si>
+  <si>
+    <t>  ip address 10.1.1.5/30</t>
+  </si>
+  <si>
+    <t>  ip address 10.250.250.103/32</t>
+  </si>
+  <si>
+    <t>  ip address 10.254.254.103/32</t>
+  </si>
+  <si>
+    <t>  router-id 10.250.250.103</t>
+  </si>
+  <si>
+    <t>      maximum-paths ibgp 2</t>
+  </si>
+  <si>
+    <t>install feature-set fabric</t>
+  </si>
+  <si>
+    <t>feature-set fabric</t>
+  </si>
+  <si>
+    <t>feature fabric forwarding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature ospf </t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>feature isis</t>
+  </si>
+  <si>
+    <t>feature vni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nv overlay evpn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabric forwarding anycast-gateway-mac 0202.0002.0002 </t>
+  </si>
+  <si>
+    <t>router bgp 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   neighbor 10.1.1.53 remote-as 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     address-family ipv4 unicast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     address-family l2vpn evpn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               send-community extended</t>
+  </si>
+  <si>
+    <t>vni 30000</t>
+  </si>
+  <si>
+    <t>system bridge-domain 200-210</t>
+  </si>
+  <si>
+    <t>bridge-domain 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   member vni 30000</t>
+  </si>
+  <si>
+    <t>Associate a VLAN (or dot1q tag) with the Layer 2 VNI:</t>
+  </si>
+  <si>
+    <t>(config) #</t>
+  </si>
+  <si>
+    <t>encapsulation profile vni cisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  dot1q 50 vni 30000</t>
+  </si>
+  <si>
+    <t>ssociate the encapsulation profile with the server facing interface</t>
+  </si>
+  <si>
+    <t>interface Ethernet 1/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   no shutdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   no switchport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   service instance 1 vni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   encapsulation profile cisco default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      no shutdown</t>
+  </si>
+  <si>
+    <t>Create a loopback interface and assign an IP address to it</t>
+  </si>
+  <si>
+    <t>interface loopback 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ip address 10.1.1.54/32 +</t>
+  </si>
+  <si>
+    <t>Associate the Layer 2 VNI to the overlay and configure multicast group membership</t>
+  </si>
+  <si>
+    <t>interface nve 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   source-interface loopback0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   host-reachability protocol bgp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      mcast-group 224.1.33.3</t>
+  </si>
+  <si>
+    <t>Enable EVPN and associate the Layer 2 VNI to it</t>
+  </si>
+  <si>
+    <t>Enable route distinguisher and route target functions for the Layer 2 VNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vni 30000 l2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    rd auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    route-target import auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    route-target export auto</t>
+  </si>
+  <si>
+    <t>Enable VRF route distinguisher and VRF route target functions for the Layer 3 VNI</t>
+  </si>
+  <si>
+    <t>vrf context coke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   vni 50000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   rd auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   address-family ipv4 unicast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      route-target both auto evpn</t>
+  </si>
+  <si>
+    <t>Associate the VRF VNI to a bridge-domain and associate a BDI to the customer VRF</t>
+  </si>
+  <si>
+    <t>system bridge-domain add 2200</t>
+  </si>
+  <si>
+    <t>bridge-domain 2200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  member vni 50000</t>
+  </si>
+  <si>
+    <t>interface bdi2200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vrf member coke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  no ip redirects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  no shutdown    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Add the Layer 3 VRF VNI to the overlay network and enable BGP reachability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   member vni 50000 associate-vrf</t>
+  </si>
+  <si>
+    <t>Configure BGP, associate the customer VRF to BGP and enable L2VPN EVPN route distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   vrf coke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      address-family ipv4 unicast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         advertise l2vpn evpn</t>
+  </si>
+  <si>
+    <t>Enable host/server facing BDI (and associate it to a VRF) for Layer 3 connectivity on the distributed anycast gateway</t>
+  </si>
+  <si>
+    <t>interface bdi200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   vrf member coke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ip address 10.1.1.1/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   fabric forwarding mode anycast-gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   no shutdown </t>
+  </si>
+  <si>
+    <t>Chapter: Configuring VXLAN BGP EVPN</t>
+  </si>
+  <si>
+    <t>NX-OS_VXLAN_Configuration_Guide/configuring-vxlan-bgp-evpn.html</t>
+  </si>
+  <si>
+    <t>L2/L3 - Reference / Template</t>
+  </si>
+  <si>
+    <t>7k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9k Build </t>
+  </si>
+  <si>
+    <t>Cisco Nexus 9000 Series NX-OS VXLAN Configuration Guide, Release 7.x - Configuring VXLAN BGP EVPN [Cisco Nexus 9000 Series Switches] - Cisco</t>
+  </si>
+  <si>
+    <t>Spine (9504-A)</t>
+  </si>
+  <si>
+    <t>Enable the EVPN control plane</t>
+  </si>
+  <si>
+    <t>Enable the relevant protocols</t>
+  </si>
+  <si>
+    <t>Configure Loopback for BGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 10.1.1.1/32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip pim sparse-mode</t>
+  </si>
+  <si>
+    <t>Configure Loopback for Anycast RP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 100.1.1.1/32</t>
+  </si>
+  <si>
+    <t>Configure Anycast RP</t>
+  </si>
+  <si>
+    <t>ip pim rp-address 100.1.1.1 group-list 224.0.0.0/4</t>
+  </si>
+  <si>
+    <t>ip pim ssm range 232.0.0.0/8</t>
+  </si>
+  <si>
+    <t>ip pim anycast-rp 100.1.1.1 10.1.1.1</t>
+  </si>
+  <si>
+    <t>ip pim anycast-rp 100.1.1.1 20.1.1.1</t>
+  </si>
+  <si>
+    <t>Configure route-map used by EBGP for Spine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  set ip next-hop unchanged</t>
+  </si>
+  <si>
+    <t>Configure interfaces for Spine-leaf interconnect</t>
+  </si>
+  <si>
+    <t>interface Ethernet4/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 192.168.1.42/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  no shutdown</t>
+  </si>
+  <si>
+    <t>interface Ethernet4/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 192.168.2.43/24</t>
+  </si>
+  <si>
+    <t>Configure the BGP overlay for the EVPN address family.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  router-id 10.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  address-family l2vpn evpn                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    nexthop route-map permitall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    retain route-target all        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  neighbor 30.1.1.1 remote-as 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    update-source loopback0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ebgp-multihop 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    address-family l2vpn evpn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      disable-peer-as-check                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      send-community extended </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      route-map permitall out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  neighbor 40.1.1.1 remote-as 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      disable-peer-as-check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      send-community extended</t>
+  </si>
+  <si>
+    <t>Configure the BGP underlay.</t>
+  </si>
+  <si>
+    <t>neighbor 192.168.1.43 remote-as 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    address-family ipv4 unicast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      allowas-in</t>
+  </si>
+  <si>
+    <t>Spine (9504-B)</t>
+  </si>
+  <si>
+    <t>Enable the EVPN control plane and the relevant protocols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 192.168.4.42/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 192.168.3.43/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 20.1.1.1/32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  router-id 20.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  address-family l2vpn evpn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    retain route-target all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>Leaf (9396-A)</t>
+  </si>
+  <si>
+    <t>Enable VXLAN with distributed anycast-gateway using BGP EVPN</t>
+  </si>
+  <si>
+    <t>fabric forwarding anycast-gateway-mac 0000.2222.3333</t>
+  </si>
+  <si>
+    <t>Enable PIM RP</t>
+  </si>
+  <si>
+    <t>Create VLANs</t>
+  </si>
+  <si>
+    <t>vlan 1-1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 30.1.1.1/32</t>
+  </si>
+  <si>
+    <t>Configure Loopback for local VTEP IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 50.1.1.1/32</t>
+  </si>
+  <si>
+    <t>interface Ethernet2/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 192.168.1.22/24</t>
+  </si>
+  <si>
+    <t>interface Ethernet2/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 192.168.3.23/24</t>
+  </si>
+  <si>
+    <t>Create the VRF overlay VLAN and configure the vn-segment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vn-segment 900001</t>
+  </si>
+  <si>
+    <t>Configure VRF overlay VLAN/SVI for the VRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vrf member vxlan-900001</t>
+  </si>
+  <si>
+    <t>Create VLAN and provide mapping to VXLAN</t>
+  </si>
+  <si>
+    <t>vlan 1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vn-segment 2001001</t>
+  </si>
+  <si>
+    <t>vlan 1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vn-segment 2001002</t>
+  </si>
+  <si>
+    <t>Create VRF and configure VNI</t>
+  </si>
+  <si>
+    <t>vrf context vxlan-900001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vni 900001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>rd auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  address-family ipv4 unicast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    route-target import 65535:101 evpn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    route-target export 65535:101 evpn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    route-target import 65535:101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    route-target export 65535:101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  address-family ipv6 unicast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    route-target import 65535:101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    route-target export 65535:101 </t>
+  </si>
+  <si>
+    <t>Create server facing SVI and enable distributed anycast-gateway</t>
+  </si>
+  <si>
+    <t>interface Vlan1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 4.1.1.1/24           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ipv6 address 4:1:0:1::1/64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  fabric forwarding mode anycast-gateway</t>
+  </si>
+  <si>
+    <t>interface Vlan1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 4.2.2.1/24           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ipv6 address 4:2:0:1::1/64</t>
+  </si>
+  <si>
+    <t>Configure ACL TCAM region for ARP suppression</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardware access-list tcam region arp-ether 256 double-wide </t>
+  </si>
+  <si>
+    <t>Create the network virtualization endpoint (NVE) interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  source-interface loopback1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  host-reachability protocol bgp             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  member vni 900001 associate-vrf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  member vni 2001001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mcast-group 239.0.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  member vni 2001002</t>
+  </si>
+  <si>
+    <t>Configure interfaces for hosts/servers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  switchport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  switchport access vlan 1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  switchport access vlan 1001</t>
+  </si>
+  <si>
+    <t>Configure BGP</t>
+  </si>
+  <si>
+    <t>router bgp 200</t>
+  </si>
+  <si>
+    <t>router-id 30.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  neighbor 10.1.1.1 remote-as 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      allowas-in                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      send-community extended     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    address-family l2vpn evpn     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  neighbor 20.1.1.1 remote-as 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vrf vxlan-900001                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      advertise l2vpn evpn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evpn                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vni 2001001 l2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vni 2001002 l2</t>
+  </si>
+  <si>
+    <t>route-target import auto</t>
+  </si>
+  <si>
+    <t>route-target export auto</t>
+  </si>
+  <si>
+    <t>The hardware access-list tcam region arp-ether 256 double-wide command is not needed for Cisco Nexus 9300-EX, 9300-FX, and 9300-FX2 platform switches.</t>
+  </si>
+  <si>
+    <t>Leaf (9396-B)</t>
+  </si>
+  <si>
+    <t>Enable the EVPN control plane functionality and the relevant protocols</t>
+  </si>
+  <si>
+    <t>Create the VRF overlay VLAN and configure the vn-segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  rd auto</t>
+  </si>
+  <si>
+    <t>Configure internal control VLAN/SVI for the VRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 4.1.1.1/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 4.2.2.1/24</t>
+  </si>
+  <si>
+    <t>Configure interfaces for hosts/servers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 192.168.4.22/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 192.168.2.23/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 40.1.1.1/32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ip address 51.1.1.1/32</t>
+  </si>
+  <si>
+    <t>router-id 40.1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    address-family l2vpn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  vrf vxlan-900001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      advertise l2vpn evpn </t>
+  </si>
+  <si>
+    <t>VXLAN BGP EVPN  (EBGP)</t>
+  </si>
+  <si>
+    <t>Spine</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +1655,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF58585B"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FF58585B"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF58585B"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF58585B"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF58585B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -585,7 +1716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -595,6 +1726,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -759,6 +1904,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>465981</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>27595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C39E7D-367B-463F-8816-498EE33689AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15278100" y="409575"/>
+          <a:ext cx="5952381" cy="7838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -804,7 +1998,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1167,7 +2361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE826C42-B377-45C5-BFE6-6E0053509C3E}">
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -2007,11 +3201,4465 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81793804-8C45-4EDB-ABB8-CF75114ADF78}">
+  <dimension ref="A3:D161"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="93.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="4" width="88" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C125" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C131" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C134" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C143" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C144" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C148" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C149" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C150" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C151" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C152" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C154" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C155" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C156" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C157" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941A637C-406D-442B-9232-77C7103E5BD2}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:S153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="5" max="11" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="59.42578125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="2.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9.140625" outlineLevel="1"/>
+    <col min="17" max="17" width="65.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="19" width="9.140625" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>490</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>491</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>492</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I4" t="s">
+        <v>392</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>474</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>353</v>
+      </c>
+      <c r="I5" t="s">
+        <v>393</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>475</v>
+      </c>
+      <c r="S5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>354</v>
+      </c>
+      <c r="S7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>367</v>
+      </c>
+      <c r="I11" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>368</v>
+      </c>
+      <c r="I12" t="s">
+        <v>368</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>402</v>
+      </c>
+      <c r="S12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>369</v>
+      </c>
+      <c r="I13" t="s">
+        <v>394</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>357</v>
+      </c>
+      <c r="I14" t="s">
+        <v>357</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>370</v>
+      </c>
+      <c r="I15" t="s">
+        <v>370</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>403</v>
+      </c>
+      <c r="S15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="S16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>371</v>
+      </c>
+      <c r="I17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>404</v>
+      </c>
+      <c r="S17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>372</v>
+      </c>
+      <c r="I18" t="s">
+        <v>395</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>361</v>
+      </c>
+      <c r="S18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>357</v>
+      </c>
+      <c r="I19" t="s">
+        <v>357</v>
+      </c>
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>362</v>
+      </c>
+      <c r="S19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>370</v>
+      </c>
+      <c r="I20" t="s">
+        <v>370</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>405</v>
+      </c>
+      <c r="S21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>355</v>
+      </c>
+      <c r="I22" t="s">
+        <v>355</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>406</v>
+      </c>
+      <c r="S22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>476</v>
+      </c>
+      <c r="S23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>356</v>
+      </c>
+      <c r="I24" t="s">
+        <v>396</v>
+      </c>
+      <c r="K24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>181</v>
+      </c>
+      <c r="S24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>357</v>
+      </c>
+      <c r="I25" t="s">
+        <v>357</v>
+      </c>
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>415</v>
+      </c>
+      <c r="S25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I27" t="s">
+        <v>358</v>
+      </c>
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
+      <c r="S28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>359</v>
+      </c>
+      <c r="I29" t="s">
+        <v>359</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>478</v>
+      </c>
+      <c r="S29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>289</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>357</v>
+      </c>
+      <c r="I30" t="s">
+        <v>357</v>
+      </c>
+      <c r="K30" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>204</v>
+      </c>
+      <c r="S30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>370</v>
+      </c>
+      <c r="S31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>360</v>
+      </c>
+      <c r="I32" t="s">
+        <v>360</v>
+      </c>
+      <c r="K32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>417</v>
+      </c>
+      <c r="S32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>361</v>
+      </c>
+      <c r="I33" t="s">
+        <v>361</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>330</v>
+      </c>
+      <c r="S33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" t="s">
+        <v>362</v>
+      </c>
+      <c r="I34" t="s">
+        <v>362</v>
+      </c>
+      <c r="K34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>418</v>
+      </c>
+      <c r="S34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>363</v>
+      </c>
+      <c r="I35" t="s">
+        <v>363</v>
+      </c>
+      <c r="K35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>419</v>
+      </c>
+      <c r="S35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>293</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s">
+        <v>364</v>
+      </c>
+      <c r="I36" t="s">
+        <v>364</v>
+      </c>
+      <c r="K36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N36" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>420</v>
+      </c>
+      <c r="S36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" t="s">
+        <v>39</v>
+      </c>
+      <c r="N37" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>421</v>
+      </c>
+      <c r="S37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>365</v>
+      </c>
+      <c r="I38" t="s">
+        <v>365</v>
+      </c>
+      <c r="K38" t="s">
+        <v>39</v>
+      </c>
+      <c r="N38" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>422</v>
+      </c>
+      <c r="S38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" t="s">
+        <v>112</v>
+      </c>
+      <c r="K39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>423</v>
+      </c>
+      <c r="S39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>366</v>
+      </c>
+      <c r="I40" t="s">
+        <v>366</v>
+      </c>
+      <c r="K40" t="s">
+        <v>39</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="S40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" t="s">
+        <v>39</v>
+      </c>
+      <c r="N41" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>425</v>
+      </c>
+      <c r="S41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" t="s">
+        <v>373</v>
+      </c>
+      <c r="I42" t="s">
+        <v>373</v>
+      </c>
+      <c r="K42" t="s">
+        <v>39</v>
+      </c>
+      <c r="N42" t="s">
+        <v>426</v>
+      </c>
+      <c r="S42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" t="s">
+        <v>284</v>
+      </c>
+      <c r="I43" t="s">
+        <v>284</v>
+      </c>
+      <c r="K43" t="s">
+        <v>39</v>
+      </c>
+      <c r="N43" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>477</v>
+      </c>
+      <c r="S43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s">
+        <v>374</v>
+      </c>
+      <c r="I44" t="s">
+        <v>397</v>
+      </c>
+      <c r="K44" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>428</v>
+      </c>
+      <c r="S44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
+        <v>375</v>
+      </c>
+      <c r="I45" t="s">
+        <v>398</v>
+      </c>
+      <c r="K45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N45" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>429</v>
+      </c>
+      <c r="S45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>299</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="K46" t="s">
+        <v>39</v>
+      </c>
+      <c r="N46" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>430</v>
+      </c>
+      <c r="S46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" t="s">
+        <v>377</v>
+      </c>
+      <c r="I47" t="s">
+        <v>399</v>
+      </c>
+      <c r="K47" t="s">
+        <v>39</v>
+      </c>
+      <c r="N47" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>434</v>
+      </c>
+      <c r="S47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>301</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" t="s">
+        <v>378</v>
+      </c>
+      <c r="I48" t="s">
+        <v>378</v>
+      </c>
+      <c r="K48" t="s">
+        <v>39</v>
+      </c>
+      <c r="N48" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>435</v>
+      </c>
+      <c r="S48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>302</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" t="s">
+        <v>379</v>
+      </c>
+      <c r="I49" t="s">
+        <v>379</v>
+      </c>
+      <c r="K49" t="s">
+        <v>39</v>
+      </c>
+      <c r="N49" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>433</v>
+      </c>
+      <c r="S49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" t="s">
+        <v>380</v>
+      </c>
+      <c r="I50" t="s">
+        <v>380</v>
+      </c>
+      <c r="K50" t="s">
+        <v>39</v>
+      </c>
+      <c r="N50" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>429</v>
+      </c>
+      <c r="S50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" t="s">
+        <v>381</v>
+      </c>
+      <c r="I51" t="s">
+        <v>381</v>
+      </c>
+      <c r="K51" t="s">
+        <v>39</v>
+      </c>
+      <c r="N51" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>430</v>
+      </c>
+      <c r="S51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" t="s">
+        <v>382</v>
+      </c>
+      <c r="I52" t="s">
+        <v>386</v>
+      </c>
+      <c r="K52" t="s">
+        <v>39</v>
+      </c>
+      <c r="N52" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>429</v>
+      </c>
+      <c r="S52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>304</v>
+      </c>
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" t="s">
+        <v>383</v>
+      </c>
+      <c r="I53" t="s">
+        <v>387</v>
+      </c>
+      <c r="K53" t="s">
+        <v>39</v>
+      </c>
+      <c r="N53" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>430</v>
+      </c>
+      <c r="S53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>294</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" t="s">
+        <v>384</v>
+      </c>
+      <c r="I54" t="s">
+        <v>384</v>
+      </c>
+      <c r="K54" t="s">
+        <v>39</v>
+      </c>
+      <c r="S54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>305</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" t="s">
+        <v>385</v>
+      </c>
+      <c r="I55" t="s">
+        <v>385</v>
+      </c>
+      <c r="K55" t="s">
+        <v>39</v>
+      </c>
+      <c r="N55" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>436</v>
+      </c>
+      <c r="S55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>306</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="K56" t="s">
+        <v>39</v>
+      </c>
+      <c r="N56" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>437</v>
+      </c>
+      <c r="S56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" t="s">
+        <v>380</v>
+      </c>
+      <c r="I57" t="s">
+        <v>380</v>
+      </c>
+      <c r="K57" t="s">
+        <v>39</v>
+      </c>
+      <c r="N57" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>370</v>
+      </c>
+      <c r="S57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>294</v>
+      </c>
+      <c r="C58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" t="s">
+        <v>381</v>
+      </c>
+      <c r="I58" t="s">
+        <v>381</v>
+      </c>
+      <c r="K58" t="s">
+        <v>39</v>
+      </c>
+      <c r="N58" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>417</v>
+      </c>
+      <c r="S58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>308</v>
+      </c>
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" t="s">
+        <v>386</v>
+      </c>
+      <c r="I59" t="s">
+        <v>386</v>
+      </c>
+      <c r="K59" t="s">
+        <v>39</v>
+      </c>
+      <c r="N59" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>479</v>
+      </c>
+      <c r="S59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>299</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I60" t="s">
+        <v>387</v>
+      </c>
+      <c r="K60" t="s">
+        <v>39</v>
+      </c>
+      <c r="N60" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>439</v>
+      </c>
+      <c r="S60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" t="s">
+        <v>384</v>
+      </c>
+      <c r="I61" t="s">
+        <v>384</v>
+      </c>
+      <c r="K61" t="s">
+        <v>39</v>
+      </c>
+      <c r="N61" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>440</v>
+      </c>
+      <c r="S61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>310</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" t="s">
+        <v>388</v>
+      </c>
+      <c r="I62" t="s">
+        <v>388</v>
+      </c>
+      <c r="K62" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>39</v>
+      </c>
+      <c r="S62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>292</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" t="s">
+        <v>389</v>
+      </c>
+      <c r="I63" t="s">
+        <v>389</v>
+      </c>
+      <c r="K63" t="s">
+        <v>39</v>
+      </c>
+      <c r="N63" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>441</v>
+      </c>
+      <c r="S63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>311</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" t="s">
+        <v>390</v>
+      </c>
+      <c r="I64" t="s">
+        <v>390</v>
+      </c>
+      <c r="K64" t="s">
+        <v>39</v>
+      </c>
+      <c r="N64" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>370</v>
+      </c>
+      <c r="S64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" t="s">
+        <v>391</v>
+      </c>
+      <c r="I65" t="s">
+        <v>391</v>
+      </c>
+      <c r="K65" t="s">
+        <v>39</v>
+      </c>
+      <c r="N65" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>417</v>
+      </c>
+      <c r="S65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" t="s">
+        <v>386</v>
+      </c>
+      <c r="I66" t="s">
+        <v>386</v>
+      </c>
+      <c r="K66" t="s">
+        <v>39</v>
+      </c>
+      <c r="N66" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>480</v>
+      </c>
+      <c r="S66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s">
+        <v>400</v>
+      </c>
+      <c r="K67" t="s">
+        <v>39</v>
+      </c>
+      <c r="N67" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>443</v>
+      </c>
+      <c r="S67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>312</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+      <c r="K68" t="s">
+        <v>39</v>
+      </c>
+      <c r="N68" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>440</v>
+      </c>
+      <c r="S68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>313</v>
+      </c>
+      <c r="C69" t="s">
+        <v>39</v>
+      </c>
+      <c r="K69" t="s">
+        <v>39</v>
+      </c>
+      <c r="N69" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>39</v>
+      </c>
+      <c r="S69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>294</v>
+      </c>
+      <c r="C70" t="s">
+        <v>39</v>
+      </c>
+      <c r="K70" t="s">
+        <v>39</v>
+      </c>
+      <c r="N70" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>444</v>
+      </c>
+      <c r="S70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
+      <c r="K71" t="s">
+        <v>39</v>
+      </c>
+      <c r="S71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>314</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+      <c r="K72" t="s">
+        <v>39</v>
+      </c>
+      <c r="N72" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>445</v>
+      </c>
+      <c r="S72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>315</v>
+      </c>
+      <c r="C73" t="s">
+        <v>39</v>
+      </c>
+      <c r="K73" t="s">
+        <v>39</v>
+      </c>
+      <c r="N73" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>473</v>
+      </c>
+      <c r="S73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>316</v>
+      </c>
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+      <c r="K74" t="s">
+        <v>39</v>
+      </c>
+      <c r="S74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>317</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75" t="s">
+        <v>39</v>
+      </c>
+      <c r="N75" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>446</v>
+      </c>
+      <c r="S75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>39</v>
+      </c>
+      <c r="K76" t="s">
+        <v>39</v>
+      </c>
+      <c r="S76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="K77" t="s">
+        <v>39</v>
+      </c>
+      <c r="S77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>39</v>
+      </c>
+      <c r="K78" t="s">
+        <v>39</v>
+      </c>
+      <c r="N78" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>447</v>
+      </c>
+      <c r="S78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>318</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
+      </c>
+      <c r="K79" t="s">
+        <v>39</v>
+      </c>
+      <c r="N79" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>53</v>
+      </c>
+      <c r="S79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>294</v>
+      </c>
+      <c r="C80" t="s">
+        <v>39</v>
+      </c>
+      <c r="K80" t="s">
+        <v>39</v>
+      </c>
+      <c r="N80" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>370</v>
+      </c>
+      <c r="S80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>319</v>
+      </c>
+      <c r="C81" t="s">
+        <v>39</v>
+      </c>
+      <c r="K81" t="s">
+        <v>39</v>
+      </c>
+      <c r="N81" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>448</v>
+      </c>
+      <c r="S81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>320</v>
+      </c>
+      <c r="C82" t="s">
+        <v>39</v>
+      </c>
+      <c r="K82" t="s">
+        <v>39</v>
+      </c>
+      <c r="N82" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>449</v>
+      </c>
+      <c r="S82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>321</v>
+      </c>
+      <c r="C83" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" t="s">
+        <v>39</v>
+      </c>
+      <c r="N83" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>450</v>
+      </c>
+      <c r="S83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>322</v>
+      </c>
+      <c r="C84" t="s">
+        <v>39</v>
+      </c>
+      <c r="K84" t="s">
+        <v>39</v>
+      </c>
+      <c r="N84" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>451</v>
+      </c>
+      <c r="S84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>323</v>
+      </c>
+      <c r="C85" t="s">
+        <v>39</v>
+      </c>
+      <c r="K85" t="s">
+        <v>39</v>
+      </c>
+      <c r="N85" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>452</v>
+      </c>
+      <c r="S85" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>39</v>
+      </c>
+      <c r="K86" t="s">
+        <v>39</v>
+      </c>
+      <c r="N86" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>453</v>
+      </c>
+      <c r="S86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>39</v>
+      </c>
+      <c r="K87" t="s">
+        <v>39</v>
+      </c>
+      <c r="N87" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>452</v>
+      </c>
+      <c r="S87" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>324</v>
+      </c>
+      <c r="C88" t="s">
+        <v>39</v>
+      </c>
+      <c r="K88" t="s">
+        <v>39</v>
+      </c>
+      <c r="N88" t="s">
+        <v>426</v>
+      </c>
+      <c r="S88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>294</v>
+      </c>
+      <c r="C89" t="s">
+        <v>39</v>
+      </c>
+      <c r="K89" t="s">
+        <v>39</v>
+      </c>
+      <c r="N89" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>481</v>
+      </c>
+      <c r="S89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>325</v>
+      </c>
+      <c r="C90" t="s">
+        <v>39</v>
+      </c>
+      <c r="K90" t="s">
+        <v>39</v>
+      </c>
+      <c r="N90" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>239</v>
+      </c>
+      <c r="S90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" t="s">
+        <v>39</v>
+      </c>
+      <c r="K91" t="s">
+        <v>39</v>
+      </c>
+      <c r="N91" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>455</v>
+      </c>
+      <c r="S91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>326</v>
+      </c>
+      <c r="C92" t="s">
+        <v>39</v>
+      </c>
+      <c r="K92" t="s">
+        <v>39</v>
+      </c>
+      <c r="N92" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>456</v>
+      </c>
+      <c r="S92" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>327</v>
+      </c>
+      <c r="C93" t="s">
+        <v>39</v>
+      </c>
+      <c r="K93" t="s">
+        <v>39</v>
+      </c>
+      <c r="N93" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>242</v>
+      </c>
+      <c r="S93" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" t="s">
+        <v>39</v>
+      </c>
+      <c r="N94" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>455</v>
+      </c>
+      <c r="S94" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>328</v>
+      </c>
+      <c r="C95" t="s">
+        <v>39</v>
+      </c>
+      <c r="K95" t="s">
+        <v>39</v>
+      </c>
+      <c r="N95" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>457</v>
+      </c>
+      <c r="S95" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>329</v>
+      </c>
+      <c r="C96" t="s">
+        <v>39</v>
+      </c>
+      <c r="K96" t="s">
+        <v>39</v>
+      </c>
+      <c r="S96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>330</v>
+      </c>
+      <c r="C97" t="s">
+        <v>39</v>
+      </c>
+      <c r="K97" t="s">
+        <v>39</v>
+      </c>
+      <c r="N97" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>355</v>
+      </c>
+      <c r="S97" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>331</v>
+      </c>
+      <c r="C98" t="s">
+        <v>39</v>
+      </c>
+      <c r="K98" t="s">
+        <v>39</v>
+      </c>
+      <c r="N98" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>92</v>
+      </c>
+      <c r="S98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>332</v>
+      </c>
+      <c r="C99" t="s">
+        <v>39</v>
+      </c>
+      <c r="K99" t="s">
+        <v>39</v>
+      </c>
+      <c r="N99" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>484</v>
+      </c>
+      <c r="S99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>333</v>
+      </c>
+      <c r="C100" t="s">
+        <v>39</v>
+      </c>
+      <c r="K100" t="s">
+        <v>39</v>
+      </c>
+      <c r="N100" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>357</v>
+      </c>
+      <c r="S100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>334</v>
+      </c>
+      <c r="C101" t="s">
+        <v>39</v>
+      </c>
+      <c r="K101" t="s">
+        <v>39</v>
+      </c>
+      <c r="N101" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>408</v>
+      </c>
+      <c r="S101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102" t="s">
+        <v>39</v>
+      </c>
+      <c r="K102" t="s">
+        <v>39</v>
+      </c>
+      <c r="N102" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>102</v>
+      </c>
+      <c r="S102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>308</v>
+      </c>
+      <c r="C103" t="s">
+        <v>39</v>
+      </c>
+      <c r="K103" t="s">
+        <v>39</v>
+      </c>
+      <c r="N103" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>485</v>
+      </c>
+      <c r="S103" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>310</v>
+      </c>
+      <c r="C104" t="s">
+        <v>39</v>
+      </c>
+      <c r="K104" t="s">
+        <v>39</v>
+      </c>
+      <c r="N104" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>357</v>
+      </c>
+      <c r="S104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>335</v>
+      </c>
+      <c r="C105" t="s">
+        <v>39</v>
+      </c>
+      <c r="K105" t="s">
+        <v>39</v>
+      </c>
+      <c r="S105" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>39</v>
+      </c>
+      <c r="K106" t="s">
+        <v>39</v>
+      </c>
+      <c r="N106" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>367</v>
+      </c>
+      <c r="S106" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>39</v>
+      </c>
+      <c r="K107" t="s">
+        <v>39</v>
+      </c>
+      <c r="N107" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>410</v>
+      </c>
+      <c r="S107" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>336</v>
+      </c>
+      <c r="C108" t="s">
+        <v>39</v>
+      </c>
+      <c r="K108" t="s">
+        <v>39</v>
+      </c>
+      <c r="N108" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>482</v>
+      </c>
+      <c r="S108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>294</v>
+      </c>
+      <c r="C109" t="s">
+        <v>39</v>
+      </c>
+      <c r="K109" t="s">
+        <v>39</v>
+      </c>
+      <c r="N109" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>357</v>
+      </c>
+      <c r="S109" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>284</v>
+      </c>
+      <c r="C110" t="s">
+        <v>39</v>
+      </c>
+      <c r="K110" t="s">
+        <v>39</v>
+      </c>
+      <c r="N110" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>370</v>
+      </c>
+      <c r="S110" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>337</v>
+      </c>
+      <c r="C111" t="s">
+        <v>39</v>
+      </c>
+      <c r="K111" t="s">
+        <v>39</v>
+      </c>
+      <c r="N111" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>39</v>
+      </c>
+      <c r="S111" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>338</v>
+      </c>
+      <c r="C112" t="s">
+        <v>39</v>
+      </c>
+      <c r="K112" t="s">
+        <v>39</v>
+      </c>
+      <c r="N112" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>412</v>
+      </c>
+      <c r="S112" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>339</v>
+      </c>
+      <c r="C113" t="s">
+        <v>39</v>
+      </c>
+      <c r="K113" t="s">
+        <v>39</v>
+      </c>
+      <c r="N113" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>483</v>
+      </c>
+      <c r="S113" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>39</v>
+      </c>
+      <c r="K114" t="s">
+        <v>39</v>
+      </c>
+      <c r="N114" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>357</v>
+      </c>
+      <c r="S114" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>340</v>
+      </c>
+      <c r="C115" t="s">
+        <v>39</v>
+      </c>
+      <c r="K115" t="s">
+        <v>39</v>
+      </c>
+      <c r="N115" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>370</v>
+      </c>
+      <c r="S115" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>294</v>
+      </c>
+      <c r="C116" t="s">
+        <v>39</v>
+      </c>
+      <c r="K116" t="s">
+        <v>39</v>
+      </c>
+      <c r="N116" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>39</v>
+      </c>
+      <c r="S116" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>341</v>
+      </c>
+      <c r="C117" t="s">
+        <v>39</v>
+      </c>
+      <c r="K117" t="s">
+        <v>39</v>
+      </c>
+      <c r="N117" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>458</v>
+      </c>
+      <c r="S117" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>342</v>
+      </c>
+      <c r="C118" t="s">
+        <v>39</v>
+      </c>
+      <c r="K118" t="s">
+        <v>39</v>
+      </c>
+      <c r="N118" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>459</v>
+      </c>
+      <c r="S118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>343</v>
+      </c>
+      <c r="C119" t="s">
+        <v>39</v>
+      </c>
+      <c r="K119" t="s">
+        <v>39</v>
+      </c>
+      <c r="N119" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>486</v>
+      </c>
+      <c r="S119" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>344</v>
+      </c>
+      <c r="C120" t="s">
+        <v>39</v>
+      </c>
+      <c r="K120" t="s">
+        <v>39</v>
+      </c>
+      <c r="N120" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>461</v>
+      </c>
+      <c r="S120" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>345</v>
+      </c>
+      <c r="C121" t="s">
+        <v>39</v>
+      </c>
+      <c r="K121" t="s">
+        <v>39</v>
+      </c>
+      <c r="N121" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>379</v>
+      </c>
+      <c r="S121" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>39</v>
+      </c>
+      <c r="K122" t="s">
+        <v>39</v>
+      </c>
+      <c r="N122" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>380</v>
+      </c>
+      <c r="S122" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>39</v>
+      </c>
+      <c r="K123" t="s">
+        <v>39</v>
+      </c>
+      <c r="N123" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>391</v>
+      </c>
+      <c r="S123" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>39</v>
+      </c>
+      <c r="K124" t="s">
+        <v>39</v>
+      </c>
+      <c r="N124" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>387</v>
+      </c>
+      <c r="S124" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>39</v>
+      </c>
+      <c r="K125" t="s">
+        <v>39</v>
+      </c>
+      <c r="N125" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>487</v>
+      </c>
+      <c r="S125" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>39</v>
+      </c>
+      <c r="K126" t="s">
+        <v>39</v>
+      </c>
+      <c r="N126" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>391</v>
+      </c>
+      <c r="S126" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>39</v>
+      </c>
+      <c r="K127" t="s">
+        <v>39</v>
+      </c>
+      <c r="N127" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>387</v>
+      </c>
+      <c r="S127" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>39</v>
+      </c>
+      <c r="K128" t="s">
+        <v>39</v>
+      </c>
+      <c r="N128" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>465</v>
+      </c>
+      <c r="S128" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>39</v>
+      </c>
+      <c r="K129" t="s">
+        <v>39</v>
+      </c>
+      <c r="N129" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>379</v>
+      </c>
+      <c r="S129" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>39</v>
+      </c>
+      <c r="K130" t="s">
+        <v>39</v>
+      </c>
+      <c r="N130" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>380</v>
+      </c>
+      <c r="S130" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>39</v>
+      </c>
+      <c r="K131" t="s">
+        <v>39</v>
+      </c>
+      <c r="N131" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>391</v>
+      </c>
+      <c r="S131" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>39</v>
+      </c>
+      <c r="K132" t="s">
+        <v>39</v>
+      </c>
+      <c r="N132" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>387</v>
+      </c>
+      <c r="S132" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>39</v>
+      </c>
+      <c r="K133" t="s">
+        <v>39</v>
+      </c>
+      <c r="N133" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>487</v>
+      </c>
+      <c r="S133" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>39</v>
+      </c>
+      <c r="K134" t="s">
+        <v>39</v>
+      </c>
+      <c r="N134" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>391</v>
+      </c>
+      <c r="S134" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>39</v>
+      </c>
+      <c r="K135" t="s">
+        <v>39</v>
+      </c>
+      <c r="N135" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>387</v>
+      </c>
+      <c r="S135" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>39</v>
+      </c>
+      <c r="K136" t="s">
+        <v>39</v>
+      </c>
+      <c r="N136" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>488</v>
+      </c>
+      <c r="S136" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>39</v>
+      </c>
+      <c r="K137" t="s">
+        <v>39</v>
+      </c>
+      <c r="N137" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>489</v>
+      </c>
+      <c r="S137" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>39</v>
+      </c>
+      <c r="K138" t="s">
+        <v>39</v>
+      </c>
+      <c r="S138" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>39</v>
+      </c>
+      <c r="K139" t="s">
+        <v>39</v>
+      </c>
+      <c r="N139" t="s">
+        <v>468</v>
+      </c>
+      <c r="S139" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>39</v>
+      </c>
+      <c r="K140" t="s">
+        <v>39</v>
+      </c>
+      <c r="N140" t="s">
+        <v>469</v>
+      </c>
+      <c r="S140" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>39</v>
+      </c>
+      <c r="K141" t="s">
+        <v>39</v>
+      </c>
+      <c r="N141" t="s">
+        <v>470</v>
+      </c>
+      <c r="S141" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>39</v>
+      </c>
+      <c r="K142" t="s">
+        <v>39</v>
+      </c>
+      <c r="S142" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>39</v>
+      </c>
+      <c r="K143" t="s">
+        <v>39</v>
+      </c>
+      <c r="N143" t="s">
+        <v>427</v>
+      </c>
+      <c r="S143" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>39</v>
+      </c>
+      <c r="K144" t="s">
+        <v>39</v>
+      </c>
+      <c r="N144" t="s">
+        <v>471</v>
+      </c>
+      <c r="S144" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>39</v>
+      </c>
+      <c r="N145" t="s">
+        <v>472</v>
+      </c>
+      <c r="S145" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>39</v>
+      </c>
+      <c r="N146" t="s">
+        <v>426</v>
+      </c>
+      <c r="S146" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>39</v>
+      </c>
+      <c r="S147" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>39</v>
+      </c>
+      <c r="S148" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{ED5F189C-AA49-48FB-84EC-2AEB5FE7747F}"/>
+    <hyperlink ref="E1" r:id="rId2" location="concept_53AC00F0DE6E40A79979F27990443953" display="https://www.cisco.com/c/en/us/td/docs/switches/datacenter/nexus9000/sw/7-x/vxlan/configuration/guide/b_Cisco_Nexus_9000_Series_NX-OS_VXLAN_Configuration_Guide_7x/b_Cisco_Nexus_9000_Series_NX-OS_VXLAN_Configuration_Guide_7x_chapter_0100.html - concept_53AC00F0DE6E40A79979F27990443953" xr:uid="{687EE61B-539C-4BA1-A93F-CBAEB1318D48}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13741EE-4426-4EDA-AA3E-9D5A7C28BA59}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,7 +7676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD054BD-CF0F-49E0-956B-ECCE124F6BCF}">
   <dimension ref="B1:B37"/>
   <sheetViews>

--- a/output/VxLAN-Book1.xlsx
+++ b/output/VxLAN-Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive-Backup\Documents\GitHub\gns3-project2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB0236D-E216-4308-92AB-7F0FBB6BBA71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB995B8-06A3-4AD1-B06C-D7C48B558D0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A4290EC5-C50D-4E9C-999A-CB8D00F5A965}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A4290EC5-C50D-4E9C-999A-CB8D00F5A965}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="500">
   <si>
     <t>L2 VNI</t>
   </si>
@@ -1596,6 +1596,27 @@
   </si>
   <si>
     <t>Leaf</t>
+  </si>
+  <si>
+    <t>ip address 56.1.1.1/32 secondary</t>
+  </si>
+  <si>
+    <t>peer-keepalive destination 10.56.0.1 source 10.56.0.2 vrf default</t>
+  </si>
+  <si>
+    <t>peer-keepalive destination 10.56.0.2 source 10.56.0.1 vrf default</t>
+  </si>
+  <si>
+    <t>int eth 2/3</t>
+  </si>
+  <si>
+    <t>9k ?</t>
+  </si>
+  <si>
+    <t>ip address 10.56.0.1/30</t>
+  </si>
+  <si>
+    <t>ip address 10.56.0.2/30</t>
   </si>
 </sst>
 </file>
@@ -1695,12 +1716,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1716,7 +1743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1740,6 +1767,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2359,10 +2387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE826C42-B377-45C5-BFE6-6E0053509C3E}">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:O130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="O111" sqref="O111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,133 +3064,218 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>173</v>
+      </c>
+      <c r="O107" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>496</v>
+      </c>
+      <c r="O109" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>498</v>
+      </c>
+      <c r="O110" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
+        <v>52</v>
+      </c>
+      <c r="O111" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>95</v>
       </c>
       <c r="D112" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
+        <v>92</v>
+      </c>
+      <c r="O112" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
+        <v>493</v>
+      </c>
+      <c r="O113" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>85</v>
+      </c>
+      <c r="O117" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>86</v>
+      </c>
+      <c r="O118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>495</v>
+      </c>
+      <c r="O119" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>88</v>
+      </c>
+      <c r="O120" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>89</v>
+      </c>
+      <c r="O121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>89</v>
       </c>
       <c r="D122" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>90</v>
+      </c>
+      <c r="O122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>91</v>
+      </c>
+      <c r="O123" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -3170,12 +3283,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
         <v>98</v>
       </c>
@@ -3204,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81793804-8C45-4EDB-ABB8-CF75114ADF78}">
   <dimension ref="A3:D161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70:D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3631,10 +3744,10 @@
       <c r="A41" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3642,10 +3755,10 @@
       <c r="A42" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="13" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3653,10 +3766,10 @@
       <c r="A43" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="13" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3664,10 +3777,10 @@
       <c r="A44" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="13" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3675,10 +3788,10 @@
       <c r="A45" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="13" t="s">
         <v>200</v>
       </c>
     </row>
@@ -3885,66 +3998,66 @@
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="13" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="13" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="13" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="13" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="13" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="13" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="13" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="13" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4600,7 +4713,7 @@
   </sheetPr>
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C16" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>

--- a/output/VxLAN-Book1.xlsx
+++ b/output/VxLAN-Book1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive-Backup\Documents\GitHub\gns3-project2\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB995B8-06A3-4AD1-B06C-D7C48B558D0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40416631-3DE1-4170-9C79-63DA83009D51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A4290EC5-C50D-4E9C-999A-CB8D00F5A965}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{A4290EC5-C50D-4E9C-999A-CB8D00F5A965}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="3" r:id="rId1"/>
-    <sheet name="Sample Config" sheetId="1" r:id="rId2"/>
-    <sheet name="1S x 2L" sheetId="5" r:id="rId3"/>
-    <sheet name="2-SpineSw x 2-LeafSw" sheetId="6" r:id="rId4"/>
+    <sheet name="2-SpineSw x 2-LeafSw" sheetId="6" r:id="rId2"/>
+    <sheet name="Sample Config" sheetId="1" r:id="rId3"/>
+    <sheet name="1S x 2L" sheetId="5" r:id="rId4"/>
     <sheet name="Summary" sheetId="2" r:id="rId5"/>
     <sheet name="TRM-Config" sheetId="4" r:id="rId6"/>
   </sheets>
@@ -1876,10 +1876,103 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>544958</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>86987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C743F0ED-8E4E-4D95-9478-060A08DCFCBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5524500"/>
+          <a:ext cx="14565758" cy="9040487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>465981</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>27595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C39E7D-367B-463F-8816-498EE33689AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15278100" y="409575"/>
+          <a:ext cx="5952381" cy="7838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1917,55 +2010,6 @@
         <a:xfrm>
           <a:off x="7048500" y="352425"/>
           <a:ext cx="11104762" cy="6514286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>465981</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>27595</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C39E7D-367B-463F-8816-498EE33689AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15278100" y="409575"/>
-          <a:ext cx="5952381" cy="7838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2372,10 +2416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79500185-2512-4F80-ADDD-C7255E2AB191}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,2335 +2433,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE826C42-B377-45C5-BFE6-6E0053509C3E}">
-  <dimension ref="A1:O130"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="O111" sqref="O111"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="1.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>50000</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>54</v>
-      </c>
-      <c r="F52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>58</v>
-      </c>
-      <c r="F56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" t="s">
-        <v>59</v>
-      </c>
-      <c r="F57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>61</v>
-      </c>
-      <c r="F60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>62</v>
-      </c>
-      <c r="F61" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>52</v>
-      </c>
-      <c r="F63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>64</v>
-      </c>
-      <c r="F65" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>65</v>
-      </c>
-      <c r="F67" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>66</v>
-      </c>
-      <c r="F68" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>28</v>
-      </c>
-      <c r="F71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>67</v>
-      </c>
-      <c r="F72" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>68</v>
-      </c>
-      <c r="F73" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F75" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F76" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>70</v>
-      </c>
-      <c r="F77" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>71</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G78" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>21</v>
-      </c>
-      <c r="H105" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
-        <v>69</v>
-      </c>
-      <c r="H107" t="s">
-        <v>173</v>
-      </c>
-      <c r="O107" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H109" t="s">
-        <v>496</v>
-      </c>
-      <c r="O109" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>119</v>
-      </c>
-      <c r="H110" t="s">
-        <v>498</v>
-      </c>
-      <c r="O110" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>115</v>
-      </c>
-      <c r="H111" t="s">
-        <v>52</v>
-      </c>
-      <c r="O111" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>95</v>
-      </c>
-      <c r="D112" t="s">
-        <v>85</v>
-      </c>
-      <c r="H112" t="s">
-        <v>92</v>
-      </c>
-      <c r="O112" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
-        <v>86</v>
-      </c>
-      <c r="H113" t="s">
-        <v>493</v>
-      </c>
-      <c r="O113" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D114" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D117" t="s">
-        <v>90</v>
-      </c>
-      <c r="H117" t="s">
-        <v>85</v>
-      </c>
-      <c r="O117" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D118" t="s">
-        <v>91</v>
-      </c>
-      <c r="H118" t="s">
-        <v>86</v>
-      </c>
-      <c r="O118" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
-        <v>52</v>
-      </c>
-      <c r="H119" t="s">
-        <v>495</v>
-      </c>
-      <c r="O119" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D120" t="s">
-        <v>92</v>
-      </c>
-      <c r="H120" t="s">
-        <v>88</v>
-      </c>
-      <c r="O120" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
-        <v>93</v>
-      </c>
-      <c r="H121" t="s">
-        <v>89</v>
-      </c>
-      <c r="O121" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>89</v>
-      </c>
-      <c r="D122" t="s">
-        <v>94</v>
-      </c>
-      <c r="H122" t="s">
-        <v>90</v>
-      </c>
-      <c r="O122" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H123" t="s">
-        <v>91</v>
-      </c>
-      <c r="O123" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>121</v>
-      </c>
-      <c r="D126" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D127" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D128" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D130" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.ciscolive.com/c/dam/r/ciscolive/emea/docs/2020/pdf/BRKDCN-3040.pdf" xr:uid="{844904A1-589A-405D-A780-8DBFCCF2AEAD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81793804-8C45-4EDB-ABB8-CF75114ADF78}">
-  <dimension ref="A3:D161"/>
-  <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70:D77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="93.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="9"/>
-    <col min="3" max="4" width="88" style="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C65" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C71" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C74" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D82" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C93" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C102" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C104" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C109" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C110" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C111" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D112" s="9" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C116" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C118" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C119" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C120" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C121" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C122" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C123" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C124" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C125" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C126" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C127" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C128" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C129" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C130" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C131" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C132" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C133" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C134" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C135" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C136" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C137" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C138" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C139" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C140" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C141" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C142" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C143" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C144" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C145" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C146" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C147" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C148" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C149" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C150" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C151" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C152" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C153" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C154" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C155" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D155" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C156" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C157" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D157" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D158" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D159" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D160" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D161" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941A637C-406D-442B-9232-77C7103E5BD2}">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -7764,6 +5491,2331 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE826C42-B377-45C5-BFE6-6E0053509C3E}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:O130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>67</v>
+      </c>
+      <c r="F72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>70</v>
+      </c>
+      <c r="F77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>71</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="H107" t="s">
+        <v>173</v>
+      </c>
+      <c r="O107" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>496</v>
+      </c>
+      <c r="O109" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="H110" t="s">
+        <v>498</v>
+      </c>
+      <c r="O110" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="H111" t="s">
+        <v>52</v>
+      </c>
+      <c r="O111" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>95</v>
+      </c>
+      <c r="D112" t="s">
+        <v>85</v>
+      </c>
+      <c r="H112" t="s">
+        <v>92</v>
+      </c>
+      <c r="O112" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>86</v>
+      </c>
+      <c r="H113" t="s">
+        <v>493</v>
+      </c>
+      <c r="O113" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>90</v>
+      </c>
+      <c r="H117" t="s">
+        <v>85</v>
+      </c>
+      <c r="O117" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>91</v>
+      </c>
+      <c r="H118" t="s">
+        <v>86</v>
+      </c>
+      <c r="O118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>52</v>
+      </c>
+      <c r="H119" t="s">
+        <v>495</v>
+      </c>
+      <c r="O119" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>92</v>
+      </c>
+      <c r="H120" t="s">
+        <v>88</v>
+      </c>
+      <c r="O120" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>93</v>
+      </c>
+      <c r="H121" t="s">
+        <v>89</v>
+      </c>
+      <c r="O121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>89</v>
+      </c>
+      <c r="D122" t="s">
+        <v>94</v>
+      </c>
+      <c r="H122" t="s">
+        <v>90</v>
+      </c>
+      <c r="O122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>91</v>
+      </c>
+      <c r="O123" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>121</v>
+      </c>
+      <c r="D126" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.ciscolive.com/c/dam/r/ciscolive/emea/docs/2020/pdf/BRKDCN-3040.pdf" xr:uid="{844904A1-589A-405D-A780-8DBFCCF2AEAD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81793804-8C45-4EDB-ABB8-CF75114ADF78}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.14999847407452621"/>
+  </sheetPr>
+  <dimension ref="A3:D161"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A70" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="93.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="9"/>
+    <col min="3" max="4" width="88" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C92" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C93" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C98" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C99" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C100" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C101" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C102" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C103" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C105" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C106" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C107" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C108" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C109" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C110" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C111" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C117" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C118" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C119" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C120" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C122" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C123" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C124" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C125" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C127" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C128" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C129" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C130" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C131" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C132" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C134" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C135" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C136" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C137" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C139" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C140" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C141" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C142" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C143" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C144" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C145" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C146" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C147" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C148" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C149" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C150" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C151" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C152" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C153" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C154" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C155" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C156" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C157" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
